--- a/document/Cơ sở dữ liệu quản lí thuê sân bóng đá.xlsx
+++ b/document/Cơ sở dữ liệu quản lí thuê sân bóng đá.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Admin</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Area</t>
   </si>
   <si>
-    <t>Category_people</t>
+    <t>Size</t>
   </si>
   <si>
     <t>id</t>
@@ -31,12 +31,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>name_category</t>
+    <t>size</t>
   </si>
   <si>
     <t>address</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -52,7 +55,7 @@
     <t>Bill</t>
   </si>
   <si>
-    <t>Football field</t>
+    <t>Pitch</t>
   </si>
   <si>
     <t>time_created</t>
@@ -79,13 +82,16 @@
     <t>area_id</t>
   </si>
   <si>
-    <t>football_field_id</t>
-  </si>
-  <si>
-    <t>category_id</t>
+    <t>pitch_id</t>
+  </si>
+  <si>
+    <t>size_id</t>
   </si>
   <si>
     <t>admin_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_pitch </t>
   </si>
 </sst>
 </file>
@@ -389,44 +395,36 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -439,7 +437,7 @@
     </row>
     <row r="13">
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>5</v>
@@ -447,49 +445,51 @@
     </row>
     <row r="14">
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="D17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
